--- a/Doc/Sprint1/Sprint1_Backlog.xlsx
+++ b/Doc/Sprint1/Sprint1_Backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F024FC-67C6-4C21-B951-EBCF55346167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702DB957-94C7-4D09-A106-B9F167EDBCE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>User Stories</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   <si>
     <t xml:space="preserve">Coding: Implement Database access to buyer profile table, update account status.
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yunwei Jiang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,22 +265,22 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -563,8 +567,8 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,270 +583,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9">
-        <v>0</v>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>0</v>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="10">
         <v>5</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
         <v>0</v>
       </c>
     </row>
@@ -852,16 +868,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Sprint1/Sprint1_Backlog.xlsx
+++ b/Doc/Sprint1/Sprint1_Backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702DB957-94C7-4D09-A106-B9F167EDBCE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CD7F4-BCF3-45E8-A436-B7A7DC86E178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>User Stories</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,11 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DataBase Design: General Account Table for all users, Seller Profile and Buyer Profile table, Admin table.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Coding: Implement Database access to related account table, account status checking and update.
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,11 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coding: Implement Database access to product table
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DataBase Design:product table
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +128,25 @@
   </si>
   <si>
     <t>Yunwei Jiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DataBase Design:product table, order table, item table. Finish the SQL script.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DataBase Design: General Account Table for all users, Seller Profile and Buyer Profile table, Admin table.Finish the SQL script.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jingzhou Hu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yunwei Jiang
+Brian Juan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,13 +283,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -567,8 +576,8 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,28 +612,28 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
@@ -633,10 +642,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
@@ -645,8 +654,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
@@ -657,28 +666,28 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>19</v>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
@@ -687,10 +696,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
@@ -699,8 +708,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
@@ -711,17 +720,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
@@ -729,41 +738,41 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
@@ -771,10 +780,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="12">
         <v>4</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -787,8 +796,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
@@ -799,10 +808,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
@@ -811,8 +820,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
@@ -823,11 +832,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="12">
         <v>5</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>23</v>
+      <c r="B18" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>3</v>
@@ -839,10 +848,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
@@ -851,8 +860,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
@@ -868,16 +877,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Sprint1/Sprint1_Backlog.xlsx
+++ b/Doc/Sprint1/Sprint1_Backlog.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CD7F4-BCF3-45E8-A436-B7A7DC86E178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A67C3E-8EDC-422A-8A85-02AC2483900E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>User Stories</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   <si>
     <t>Yunwei Jiang
 Brian Juan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ashita</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -286,10 +290,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -577,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,10 +619,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -630,46 +637,52 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -684,8 +697,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -696,8 +709,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
@@ -708,8 +721,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
@@ -720,10 +733,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -738,8 +751,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
@@ -748,12 +761,12 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
@@ -766,8 +779,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
@@ -776,14 +789,14 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>4</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -796,8 +809,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
@@ -808,8 +821,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
@@ -820,8 +833,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
@@ -832,10 +845,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -848,8 +861,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
@@ -860,8 +873,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
@@ -877,16 +890,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
